--- a/biology/Mycologie/Erysiphe_heraclei/Erysiphe_heraclei.xlsx
+++ b/biology/Mycologie/Erysiphe_heraclei/Erysiphe_heraclei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Érysiphé de la Berce
 Erysiphe heraclei, l'Érysiphé de la Berce, est une espèce de champignons ascomycètes de la famille des Erysiphaceae et du genre Erysiphe. Il s'agit d'un oïdium, un champignon phytopathogène, spécialisé dans la famille des Ombellifères.
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est décrite[2] par le botaniste suisse Johann Christoph Schleicher au début du XIXe siècle puis formalisée par le botaniste suisse Augustin Pyrame de Candolle en 1815 dans la Flore française de Lamarck[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est décrite par le botaniste suisse Johann Christoph Schleicher au début du XIXe siècle puis formalisée par le botaniste suisse Augustin Pyrame de Candolle en 1815 dans la Flore française de Lamarck.
 « Cette érysiphé est répandue sur les feuilles de la berce branc-ursine, tant à leur surface inférieure qu’à la supérieure ; ses tubercules sont globuleux, presque luisans ; il s’échappe de leur base plusieurs filamens, courts, irréguliers, la plupart simples et libres, quelques-uns légèrement entremêlés, mais ne formant ni une croûte ni un duvet visible à l’œil; on a peine quelquefois à distinguer cette érysiphé, parce qu’elle est mélangée avec les poils de la berce. »
-— Augustin Pyrame de Candolle, 1815[1]
-Il s'agit d'un mycélium blanc, farineux et floconneux envahissant les feuilles, la tige et l'inflorescence. Ses conidies solitaires, mesurent de 25 à 45 μm de long pour 12 à 20 μm de large et les fructifications, nommées cléistothèces, mesurent de 80 à 140 μm de diamètre. Leurs appendices, en nombres variables, sont flasques, partiellement coriace et fourchus. Ils sont de 0,5 à 1,5 fois plus longs que le diamètre du corps fructifère composé de 3 à 7 asques eux-mêmes portant de 3 à 5 spores[3],[4].
+— Augustin Pyrame de Candolle, 1815
+Il s'agit d'un mycélium blanc, farineux et floconneux envahissant les feuilles, la tige et l'inflorescence. Ses conidies solitaires, mesurent de 25 à 45 μm de long pour 12 à 20 μm de large et les fructifications, nommées cléistothèces, mesurent de 80 à 140 μm de diamètre. Leurs appendices, en nombres variables, sont flasques, partiellement coriace et fourchus. Ils sont de 0,5 à 1,5 fois plus longs que le diamètre du corps fructifère composé de 3 à 7 asques eux-mêmes portant de 3 à 5 spores,.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En plus de la variété type décrite depuis l'Allemagne et la France, la variété himalayensis est décrite en 2006 depuis le Nord de l'Inde[5], mais son statut n'est pas clairement établi[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En plus de la variété type décrite depuis l'Allemagne et la France, la variété himalayensis est décrite en 2006 depuis le Nord de l'Inde, mais son statut n'est pas clairement établi.
 Erysiphe heraclei var. heraclei
 Erysiphe heraclei var. himalayensis Y.S. Paul &amp; V.K.,2006</t>
         </is>
@@ -578,9 +594,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum :
 Alphitomorpha heraclei (DC.) Wallr., 1819
 Erysiphe communis var. umbelliferarum (Lév.) de Bary, 1896
 Erysiphe martii e umbelliferarum Lév., 1851
@@ -615,9 +633,11 @@
           <t>Impact parasitaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seules les Apiacées semblent être affectées par les affres d'Erysiphe heraclei. De nombreuses espèces sont touchées de façon éparse, rarement voire très rarement. À l'inverse, Erysiphe heraclei est particulièrement courante sur Angelica sylvestris, Anthriscus sylvestris, Chaerophyllum hirsutum et Heracleum sphondylium[3]. Voici une liste exhaustive des espèces impactées en Europe occidentale[4] et centrale[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seules les Apiacées semblent être affectées par les affres d'Erysiphe heraclei. De nombreuses espèces sont touchées de façon éparse, rarement voire très rarement. À l'inverse, Erysiphe heraclei est particulièrement courante sur Angelica sylvestris, Anthriscus sylvestris, Chaerophyllum hirsutum et Heracleum sphondylium. Voici une liste exhaustive des espèces impactées en Europe occidentale et centrale :
 Aegopodium podagraria
 Aethusa cynapium
 Ammi majus, Ammi visnaga
